--- a/data/SDG9.xlsx
+++ b/data/SDG9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE9EA03-2CA1-6647-9E0C-6243CDC0D848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7248A9A0-08BE-964F-81AD-D7607E1C7E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{34C0AB78-21C9-DE46-9134-DC8E7DED2399}"/>
+    <workbookView xWindow="1620" yWindow="540" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{34C0AB78-21C9-DE46-9134-DC8E7DED2399}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="1391">
   <si>
     <t>keyword</t>
   </si>
@@ -2520,9 +2520,6 @@
     <t>bande étroite iot</t>
   </si>
   <si>
-    <t>Iot bande étroite</t>
-  </si>
-  <si>
     <t>national development bank</t>
   </si>
   <si>
@@ -2859,9 +2856,6 @@
     <t>vente au détail en libre-service</t>
   </si>
   <si>
-    <t>vente au détail pop-up</t>
-  </si>
-  <si>
     <t>product innovation</t>
   </si>
   <si>
@@ -3967,6 +3961,255 @@
   </si>
   <si>
     <t>it_lem</t>
+  </si>
+  <si>
+    <t>accélérer le changement</t>
+  </si>
+  <si>
+    <t>accès au financement</t>
+  </si>
+  <si>
+    <t>accès à Internet</t>
+  </si>
+  <si>
+    <t>théorie acteur-réseau</t>
+  </si>
+  <si>
+    <t>approche de conception innovante avancée</t>
+  </si>
+  <si>
+    <t>campagne publicitaire</t>
+  </si>
+  <si>
+    <t>Scénarios de conséquences de l'IA</t>
+  </si>
+  <si>
+    <t>route d'ambre</t>
+  </si>
+  <si>
+    <t>logistique autonome</t>
+  </si>
+  <si>
+    <t>transport ferroviaire rapide autonome</t>
+  </si>
+  <si>
+    <t>équilibre de croissance équilibrée</t>
+  </si>
+  <si>
+    <t>initiative ceinture et route</t>
+  </si>
+  <si>
+    <t>recherche sur le ciel bleu</t>
+  </si>
+  <si>
+    <t>architecture de marque</t>
+  </si>
+  <si>
+    <t>haut débit</t>
+  </si>
+  <si>
+    <t>construire – exploiter – transférer</t>
+  </si>
+  <si>
+    <t>plan d'affaires</t>
+  </si>
+  <si>
+    <t>accès Internet par câble</t>
+  </si>
+  <si>
+    <t>Renforcement des capacités</t>
+  </si>
+  <si>
+    <t>contrôle des capitaux</t>
+  </si>
+  <si>
+    <t>capitalisme sans croissance</t>
+  </si>
+  <si>
+    <t>centres de catapulte</t>
+  </si>
+  <si>
+    <t>infrastructure cellulaire</t>
+  </si>
+  <si>
+    <t>réseaux cellulaires</t>
+  </si>
+  <si>
+    <t>infrastructure cloud</t>
+  </si>
+  <si>
+    <t>pôles d'innovation</t>
+  </si>
+  <si>
+    <t>infrastructure de communication</t>
+  </si>
+  <si>
+    <t>Réseaux de communication</t>
+  </si>
+  <si>
+    <t>capitalisme communautaire</t>
+  </si>
+  <si>
+    <t>banque de développement communautaire</t>
+  </si>
+  <si>
+    <t>réseaux communautaires</t>
+  </si>
+  <si>
+    <t>veille concurrentielle</t>
+  </si>
+  <si>
+    <t>technologie informatique pour les régions en développement</t>
+  </si>
+  <si>
+    <t>entrepreneuriat créatif</t>
+  </si>
+  <si>
+    <t>résolution de problèmes créative</t>
+  </si>
+  <si>
+    <t>la créativité</t>
+  </si>
+  <si>
+    <t>allègement de la dette</t>
+  </si>
+  <si>
+    <t>démocratisation de la technologie</t>
+  </si>
+  <si>
+    <t>Gestion de la conception</t>
+  </si>
+  <si>
+    <t>éthique du développement</t>
+  </si>
+  <si>
+    <t>innovation de rupture</t>
+  </si>
+  <si>
+    <t>processus de solutions disruptives</t>
+  </si>
+  <si>
+    <t>entreprises nationales</t>
+  </si>
+  <si>
+    <t>empreinte écologique</t>
+  </si>
+  <si>
+    <t>écomécatronique</t>
+  </si>
+  <si>
+    <t>développement économique</t>
+  </si>
+  <si>
+    <t>croissance économique</t>
+  </si>
+  <si>
+    <t>écopreneurhip</t>
+  </si>
+  <si>
+    <t>qualité énergétique</t>
+  </si>
+  <si>
+    <t>entrepreneuriat</t>
+  </si>
+  <si>
+    <t>écosystème entrepreneurial</t>
+  </si>
+  <si>
+    <t>éducation à l'entrepreneuriat</t>
+  </si>
+  <si>
+    <t>environnement ECONOMIQUE</t>
+  </si>
+  <si>
+    <t>comptabilité environnementale à coût complet</t>
+  </si>
+  <si>
+    <t>technologies écologiquement rationnelles</t>
+  </si>
+  <si>
+    <t>chaîne juste</t>
+  </si>
+  <si>
+    <t>commerce équitable</t>
+  </si>
+  <si>
+    <t>femmes entrepreneurs</t>
+  </si>
+  <si>
+    <t>innovation financière</t>
+  </si>
+  <si>
+    <t>hétérogénéité ferme</t>
+  </si>
+  <si>
+    <t>politique fiscale</t>
+  </si>
+  <si>
+    <t>l'investissement étranger direct</t>
+  </si>
+  <si>
+    <t>entreprises étrangères</t>
+  </si>
+  <si>
+    <t>innovation fondamentale</t>
+  </si>
+  <si>
+    <t>chercheurs équivalents temps plein</t>
+  </si>
+  <si>
+    <t>financement de la science</t>
+  </si>
+  <si>
+    <t>l'approvisionnement mondial</t>
+  </si>
+  <si>
+    <t>innovation cachée</t>
+  </si>
+  <si>
+    <t>accès TIC</t>
+  </si>
+  <si>
+    <t>entreprise inclusive</t>
+  </si>
+  <si>
+    <t>entrepreneuriat inclusif</t>
+  </si>
+  <si>
+    <t>innovation induite</t>
+  </si>
+  <si>
+    <t>applications industrielles</t>
+  </si>
+  <si>
+    <t>entreprises industrielles</t>
+  </si>
+  <si>
+    <t>développement industriel</t>
+  </si>
+  <si>
+    <t>diversification industrielle</t>
+  </si>
+  <si>
+    <t>écologie industrielle</t>
+  </si>
+  <si>
+    <t>internationalisation industrielle</t>
+  </si>
+  <si>
+    <t>Internet industriel des objets</t>
+  </si>
+  <si>
+    <t>processus industriels</t>
+  </si>
+  <si>
+    <t>industrialisation et urbanisation</t>
+  </si>
+  <si>
+    <t>Iot à bande étroite</t>
+  </si>
+  <si>
+    <t>vente au détail éphémère</t>
   </si>
 </sst>
 </file>
@@ -4352,7 +4595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12691166-C5FB-EA4E-9E2A-6CC4F0B2C5AA}">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D270"/>
     </sheetView>
   </sheetViews>
@@ -4365,16 +4608,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1298</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1299</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6491,505 +6734,505 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="C181" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>633</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D199" s="5"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D200" s="5"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D201" s="5"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D202" s="5"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>633</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D203" s="5"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D204" s="5"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D212" s="5"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D213" s="5"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D214" s="5"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D216" s="5"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D217" s="5"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D218" s="5"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D219" s="5"/>
     </row>
@@ -6998,7 +7241,7 @@
         <v>602</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>602</v>
@@ -7007,601 +7250,601 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D223" s="5"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D224" s="5"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D225" s="5"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D226" s="5"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D228" s="5"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D229" s="5"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D230" s="5"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D233" s="5"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D234" s="5"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D235" s="5"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D236" s="5"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D238" s="5"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D239" s="5"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D241" s="5"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D242" s="5"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D261" s="5"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D264" s="5"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D265" s="5"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D266" s="5"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D267" s="5"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D268" s="5"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D269" s="5"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D270" s="5"/>
     </row>
@@ -7620,6 +7863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.33203125" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" bestFit="1" customWidth="1"/>
@@ -7627,19 +7871,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1303</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10284,631 +10528,631 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="D179" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>845</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>861</v>
-      </c>
       <c r="D184" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>866</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="D186" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>874</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>879</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>884</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>890</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>896</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>902</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>908</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>913</v>
-      </c>
       <c r="D194" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>924</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>929</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>934</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>938</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>943</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>948</v>
-      </c>
       <c r="C201" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>954</v>
-      </c>
       <c r="C202" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>960</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>965</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>971</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>976</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>981</v>
-      </c>
       <c r="C207" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>992</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>997</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>1003</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>1007</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>1012</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>1017</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>1022</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>1026</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>1031</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E217" s="5"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>1036</v>
-      </c>
       <c r="C218" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E218" s="5"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>1043</v>
-      </c>
       <c r="C219" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E219" s="5"/>
     </row>
@@ -10917,763 +11161,763 @@
         <v>602</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>1053</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>1062</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E223" s="5"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>1067</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E224" s="5"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1073</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E225" s="5"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E226" s="5"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>1081</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>1085</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E228" s="5"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E229" s="5"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>1092</v>
-      </c>
       <c r="D230" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E230" s="5"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>1098</v>
-      </c>
       <c r="D231" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E231" s="5"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>1104</v>
-      </c>
       <c r="D232" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E232" s="5"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>1110</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>1116</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E234" s="5"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>1121</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E235" s="5"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1127</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>1135</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>1140</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E239" s="5"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>1144</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>1149</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E241" s="5"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E242" s="5"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>1157</v>
-      </c>
       <c r="D243" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>1162</v>
-      </c>
       <c r="D244" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E244" s="5"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>1171</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>1176</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>1182</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E248" s="5"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>1187</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E249" s="5"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>1191</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E250" s="5"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>1195</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E251" s="5"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>1201</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E252" s="5"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>1205</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E253" s="5"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>1210</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E254" s="5"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>1215</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E255" s="5"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>1220</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>1225</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E257" s="5"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1229</v>
-      </c>
       <c r="D258" s="4" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E258" s="5"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>1235</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E259" s="5"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>1241</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E260" s="5"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>1247</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>1253</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E262" s="5"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>1259</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E263" s="5"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1262</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>1264</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E264" s="5"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>1270</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E265" s="5"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>1275</v>
-      </c>
       <c r="D266" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E266" s="5"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>1280</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E267" s="5"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>1285</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E268" s="5"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>1289</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E269" s="5"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>1295</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E270" s="5"/>
     </row>
@@ -11686,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F04DE1-D592-7448-A66B-B8AAFB474365}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11700,19 +11944,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11723,7 +11967,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -11738,7 +11982,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -11753,7 +11997,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>1308</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -11768,7 +12012,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>1309</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -11783,7 +12027,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>1310</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
@@ -11798,7 +12042,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>1311</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>32</v>
@@ -11813,7 +12057,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>37</v>
@@ -11828,7 +12072,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>1312</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>42</v>
@@ -11843,7 +12087,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>46</v>
@@ -11858,7 +12102,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>1313</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -11873,7 +12117,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>55</v>
@@ -11888,7 +12132,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>1314</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>61</v>
@@ -11903,7 +12147,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>1315</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>67</v>
@@ -11918,7 +12162,7 @@
         <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>73</v>
@@ -11933,7 +12177,7 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>78</v>
@@ -11948,7 +12192,7 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>82</v>
@@ -11963,7 +12207,7 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>1316</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>86</v>
@@ -11978,7 +12222,7 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>1317</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>91</v>
@@ -11993,7 +12237,7 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>1318</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>97</v>
@@ -12008,7 +12252,7 @@
         <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>103</v>
@@ -12023,7 +12267,7 @@
         <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>1319</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>108</v>
@@ -12038,7 +12282,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>114</v>
@@ -12053,7 +12297,7 @@
         <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>115</v>
@@ -12068,7 +12312,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>1320</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>122</v>
@@ -12083,7 +12327,7 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>1321</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>126</v>
@@ -12098,7 +12342,7 @@
         <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>130</v>
@@ -12113,7 +12357,7 @@
         <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>1322</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>136</v>
@@ -12128,7 +12372,7 @@
         <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>1323</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>142</v>
@@ -12143,7 +12387,7 @@
         <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>1324</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>147</v>
@@ -12158,7 +12402,7 @@
         <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>1325</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>152</v>
@@ -12173,7 +12417,7 @@
         <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>1326</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>157</v>
@@ -12188,7 +12432,7 @@
         <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>1327</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>162</v>
@@ -12203,7 +12447,7 @@
         <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>1328</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>166</v>
@@ -12218,7 +12462,7 @@
         <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>1329</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>171</v>
@@ -12233,7 +12477,7 @@
         <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>1330</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>175</v>
@@ -12248,7 +12492,7 @@
         <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>1331</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>180</v>
@@ -12263,7 +12507,7 @@
         <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>186</v>
@@ -12278,7 +12522,7 @@
         <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>1332</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>190</v>
@@ -12293,7 +12537,7 @@
         <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>1333</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>195</v>
@@ -12308,7 +12552,7 @@
         <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>200</v>
@@ -12338,7 +12582,7 @@
         <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>210</v>
@@ -12353,7 +12597,7 @@
         <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>1334</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>214</v>
@@ -12368,7 +12612,7 @@
         <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>1335</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>218</v>
@@ -12383,7 +12627,7 @@
         <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>222</v>
@@ -12398,7 +12642,7 @@
         <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>1336</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>226</v>
@@ -12413,7 +12657,7 @@
         <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>1337</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>232</v>
@@ -12428,7 +12672,7 @@
         <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>1338</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>237</v>
@@ -12443,7 +12687,7 @@
         <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>1339</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>242</v>
@@ -12458,7 +12702,7 @@
         <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>1340</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>247</v>
@@ -12473,7 +12717,7 @@
         <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>252</v>
@@ -12488,7 +12732,7 @@
         <v>256</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>1341</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>256</v>
@@ -12503,7 +12747,7 @@
         <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>1342</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>261</v>
@@ -12518,7 +12762,7 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>264</v>
+        <v>1343</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>265</v>
@@ -12533,7 +12777,7 @@
         <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>1344</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>269</v>
@@ -12548,7 +12792,7 @@
         <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>1345</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>274</v>
@@ -12563,7 +12807,7 @@
         <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>1346</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>279</v>
@@ -12578,7 +12822,7 @@
         <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>1347</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>283</v>
@@ -12593,7 +12837,7 @@
         <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>288</v>
@@ -12608,7 +12852,7 @@
         <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>1348</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>292</v>
@@ -12623,7 +12867,7 @@
         <v>296</v>
       </c>
       <c r="C62" t="s">
-        <v>295</v>
+        <v>1349</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>296</v>
@@ -12638,7 +12882,7 @@
         <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>1350</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>301</v>
@@ -12653,7 +12897,7 @@
         <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>305</v>
@@ -12668,7 +12912,7 @@
         <v>310</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>310</v>
@@ -12683,7 +12927,7 @@
         <v>315</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>315</v>
@@ -12698,7 +12942,7 @@
         <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>320</v>
@@ -12713,7 +12957,7 @@
         <v>325</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>325</v>
@@ -12728,7 +12972,7 @@
         <v>329</v>
       </c>
       <c r="C69" t="s">
-        <v>328</v>
+        <v>1351</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>329</v>
@@ -12743,7 +12987,7 @@
         <v>332</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>1352</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>332</v>
@@ -12758,7 +13002,7 @@
         <v>337</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>1353</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>337</v>
@@ -12773,7 +13017,7 @@
         <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>341</v>
+        <v>1354</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>342</v>
@@ -12788,7 +13032,7 @@
         <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>347</v>
@@ -12803,7 +13047,7 @@
         <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>351</v>
@@ -12818,7 +13062,7 @@
         <v>356</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>356</v>
@@ -12833,7 +13077,7 @@
         <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>1355</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>359</v>
@@ -12848,7 +13092,7 @@
         <v>363</v>
       </c>
       <c r="C77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>363</v>
@@ -12863,7 +13107,7 @@
         <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>368</v>
@@ -12878,7 +13122,7 @@
         <v>373</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>373</v>
@@ -12893,7 +13137,7 @@
         <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>378</v>
@@ -12908,7 +13152,7 @@
         <v>383</v>
       </c>
       <c r="C81" t="s">
-        <v>382</v>
+        <v>1356</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>383</v>
@@ -12923,7 +13167,7 @@
         <v>389</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>1357</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>389</v>
@@ -12938,7 +13182,7 @@
         <v>393</v>
       </c>
       <c r="C83" t="s">
-        <v>392</v>
+        <v>1358</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>393</v>
@@ -12953,7 +13197,7 @@
         <v>398</v>
       </c>
       <c r="C84" t="s">
-        <v>397</v>
+        <v>1359</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>398</v>
@@ -12968,7 +13212,7 @@
         <v>402</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>1360</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>402</v>
@@ -12983,7 +13227,7 @@
         <v>407</v>
       </c>
       <c r="C86" t="s">
-        <v>406</v>
+        <v>1361</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>407</v>
@@ -12998,7 +13242,7 @@
         <v>411</v>
       </c>
       <c r="C87" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>411</v>
@@ -13013,7 +13257,7 @@
         <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>416</v>
+        <v>1362</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>417</v>
@@ -13028,7 +13272,7 @@
         <v>421</v>
       </c>
       <c r="C89" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>421</v>
@@ -13043,7 +13287,7 @@
         <v>426</v>
       </c>
       <c r="C90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>426</v>
@@ -13058,7 +13302,7 @@
         <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>429</v>
+        <v>1363</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>430</v>
@@ -13073,7 +13317,7 @@
         <v>434</v>
       </c>
       <c r="C92" t="s">
-        <v>433</v>
+        <v>1364</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>434</v>
@@ -13088,7 +13332,7 @@
         <v>439</v>
       </c>
       <c r="C93" t="s">
-        <v>438</v>
+        <v>1365</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>439</v>
@@ -13103,7 +13347,7 @@
         <v>444</v>
       </c>
       <c r="C94" t="s">
-        <v>443</v>
+        <v>1366</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>444</v>
@@ -13118,7 +13362,7 @@
         <v>450</v>
       </c>
       <c r="C95" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>450</v>
@@ -13133,7 +13377,7 @@
         <v>454</v>
       </c>
       <c r="C96" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>454</v>
@@ -13148,7 +13392,7 @@
         <v>460</v>
       </c>
       <c r="C97" t="s">
-        <v>459</v>
+        <v>1367</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>460</v>
@@ -13163,7 +13407,7 @@
         <v>465</v>
       </c>
       <c r="C98" t="s">
-        <v>464</v>
+        <v>1368</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>465</v>
@@ -13178,7 +13422,7 @@
         <v>470</v>
       </c>
       <c r="C99" t="s">
-        <v>469</v>
+        <v>1369</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>470</v>
@@ -13193,7 +13437,7 @@
         <v>474</v>
       </c>
       <c r="C100" t="s">
-        <v>473</v>
+        <v>1370</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>474</v>
@@ -13208,7 +13452,7 @@
         <v>479</v>
       </c>
       <c r="C101" t="s">
-        <v>478</v>
+        <v>1371</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>479</v>
@@ -13223,7 +13467,7 @@
         <v>484</v>
       </c>
       <c r="C102" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>484</v>
@@ -13238,7 +13482,7 @@
         <v>489</v>
       </c>
       <c r="C103" t="s">
-        <v>488</v>
+        <v>1372</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>489</v>
@@ -13253,7 +13497,7 @@
         <v>493</v>
       </c>
       <c r="C104" t="s">
-        <v>492</v>
+        <v>1373</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>493</v>
@@ -13268,7 +13512,7 @@
         <v>497</v>
       </c>
       <c r="C105" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>497</v>
@@ -13283,7 +13527,7 @@
         <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>501</v>
@@ -13298,7 +13542,7 @@
         <v>505</v>
       </c>
       <c r="C107" t="s">
-        <v>504</v>
+        <v>1374</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>505</v>
@@ -13313,7 +13557,7 @@
         <v>509</v>
       </c>
       <c r="C108" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>509</v>
@@ -13328,7 +13572,7 @@
         <v>514</v>
       </c>
       <c r="C109" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>514</v>
@@ -13343,7 +13587,7 @@
         <v>518</v>
       </c>
       <c r="C110" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>518</v>
@@ -13358,7 +13602,7 @@
         <v>522</v>
       </c>
       <c r="C111" t="s">
-        <v>521</v>
+        <v>1375</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>522</v>
@@ -13373,7 +13617,7 @@
         <v>527</v>
       </c>
       <c r="C112" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>527</v>
@@ -13388,7 +13632,7 @@
         <v>532</v>
       </c>
       <c r="C113" t="s">
-        <v>531</v>
+        <v>1376</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>532</v>
@@ -13403,7 +13647,7 @@
         <v>536</v>
       </c>
       <c r="C114" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>536</v>
@@ -13418,7 +13662,7 @@
         <v>541</v>
       </c>
       <c r="C115" t="s">
-        <v>540</v>
+        <v>1377</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>541</v>
@@ -13433,7 +13677,7 @@
         <v>546</v>
       </c>
       <c r="C116" t="s">
-        <v>545</v>
+        <v>1378</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>546</v>
@@ -13448,7 +13692,7 @@
         <v>551</v>
       </c>
       <c r="C117" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>551</v>
@@ -13463,7 +13707,7 @@
         <v>555</v>
       </c>
       <c r="C118" t="s">
-        <v>554</v>
+        <v>1379</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>555</v>
@@ -13478,7 +13722,7 @@
         <v>560</v>
       </c>
       <c r="C119" t="s">
-        <v>559</v>
+        <v>1380</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>560</v>
@@ -13493,7 +13737,7 @@
         <v>564</v>
       </c>
       <c r="C120" t="s">
-        <v>563</v>
+        <v>1381</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>564</v>
@@ -13508,7 +13752,7 @@
         <v>568</v>
       </c>
       <c r="C121" t="s">
-        <v>567</v>
+        <v>1382</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>568</v>
@@ -13523,7 +13767,7 @@
         <v>572</v>
       </c>
       <c r="C122" t="s">
-        <v>571</v>
+        <v>1383</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>572</v>
@@ -13538,7 +13782,7 @@
         <v>577</v>
       </c>
       <c r="C123" t="s">
-        <v>576</v>
+        <v>1384</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>577</v>
@@ -13553,7 +13797,7 @@
         <v>581</v>
       </c>
       <c r="C124" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>581</v>
@@ -13568,7 +13812,7 @@
         <v>564</v>
       </c>
       <c r="C125" t="s">
-        <v>584</v>
+        <v>1381</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>564</v>
@@ -13583,7 +13827,7 @@
         <v>588</v>
       </c>
       <c r="C126" t="s">
-        <v>587</v>
+        <v>1385</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>588</v>
@@ -13598,7 +13842,7 @@
         <v>594</v>
       </c>
       <c r="C127" t="s">
-        <v>593</v>
+        <v>1386</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>594</v>
@@ -13613,7 +13857,7 @@
         <v>600</v>
       </c>
       <c r="C128" t="s">
-        <v>599</v>
+        <v>1387</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>600</v>
@@ -13628,7 +13872,7 @@
         <v>605</v>
       </c>
       <c r="C129" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>605</v>
@@ -13643,7 +13887,7 @@
         <v>606</v>
       </c>
       <c r="C130" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>606</v>
@@ -13658,7 +13902,7 @@
         <v>606</v>
       </c>
       <c r="C131" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>606</v>
@@ -13673,7 +13917,7 @@
         <v>615</v>
       </c>
       <c r="C132" t="s">
-        <v>614</v>
+        <v>1388</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>615</v>
@@ -14348,7 +14592,7 @@
         <v>826</v>
       </c>
       <c r="C177" t="s">
-        <v>827</v>
+        <v>1389</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>826</v>
@@ -14357,631 +14601,631 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C178" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B179" t="s">
+        <v>835</v>
+      </c>
+      <c r="C179" t="s">
         <v>836</v>
       </c>
-      <c r="C179" t="s">
-        <v>837</v>
-      </c>
       <c r="D179" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B180" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C180" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B181" t="s">
+        <v>845</v>
+      </c>
+      <c r="C181" t="s">
         <v>846</v>
       </c>
-      <c r="C181" t="s">
-        <v>847</v>
-      </c>
       <c r="D181" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B182" t="s">
+        <v>850</v>
+      </c>
+      <c r="C182" t="s">
         <v>851</v>
       </c>
-      <c r="C182" t="s">
-        <v>852</v>
-      </c>
       <c r="D182" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B183" t="s">
+        <v>856</v>
+      </c>
+      <c r="C183" t="s">
         <v>857</v>
       </c>
-      <c r="C183" t="s">
-        <v>858</v>
-      </c>
       <c r="D183" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B184" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C184" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B185" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C185" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B186" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C186" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B187" t="s">
+        <v>874</v>
+      </c>
+      <c r="C187" t="s">
         <v>875</v>
       </c>
-      <c r="C187" t="s">
-        <v>876</v>
-      </c>
       <c r="D187" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B188" t="s">
+        <v>879</v>
+      </c>
+      <c r="C188" t="s">
         <v>880</v>
       </c>
-      <c r="C188" t="s">
-        <v>881</v>
-      </c>
       <c r="D188" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B189" t="s">
+        <v>885</v>
+      </c>
+      <c r="C189" t="s">
         <v>886</v>
       </c>
-      <c r="C189" t="s">
-        <v>887</v>
-      </c>
       <c r="D189" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B190" t="s">
+        <v>891</v>
+      </c>
+      <c r="C190" t="s">
         <v>892</v>
       </c>
-      <c r="C190" t="s">
-        <v>893</v>
-      </c>
       <c r="D190" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B191" t="s">
+        <v>897</v>
+      </c>
+      <c r="C191" t="s">
         <v>898</v>
       </c>
-      <c r="C191" t="s">
-        <v>899</v>
-      </c>
       <c r="D191" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B192" t="s">
+        <v>903</v>
+      </c>
+      <c r="C192" t="s">
         <v>904</v>
       </c>
-      <c r="C192" t="s">
-        <v>905</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B193" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C193" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B194" t="s">
+        <v>914</v>
+      </c>
+      <c r="C194" t="s">
         <v>915</v>
       </c>
-      <c r="C194" t="s">
-        <v>916</v>
-      </c>
       <c r="D194" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B195" t="s">
+        <v>919</v>
+      </c>
+      <c r="C195" t="s">
         <v>920</v>
       </c>
-      <c r="C195" t="s">
-        <v>921</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B196" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C196" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B197" t="s">
+        <v>929</v>
+      </c>
+      <c r="C197" t="s">
         <v>930</v>
       </c>
-      <c r="C197" t="s">
-        <v>931</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B198" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C198" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B199" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C199" t="s">
-        <v>940</v>
+        <v>1390</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B200" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C200" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B201" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C201" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B202" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C202" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B203" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C203" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B204" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C204" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B205" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C205" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B206" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C206" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B207" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C207" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B208" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C208" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B209" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C209" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B210" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C210" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B211" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C211" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B212" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C212" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B213" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C213" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B214" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C214" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B215" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C215" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B216" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C216" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B217" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C217" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E217" s="5"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B218" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C218" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E218" s="5"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B219" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C219" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E219" s="5"/>
     </row>
@@ -14990,763 +15234,763 @@
         <v>602</v>
       </c>
       <c r="B220" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C220" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B221" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C221" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B222" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C222" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B223" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C223" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E223" s="5"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B224" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C224" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E224" s="5"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B225" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C225" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E225" s="5"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B226" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C226" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E226" s="5"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B227" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C227" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B228" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C228" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E228" s="5"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B229" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C229" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E229" s="5"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B230" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C230" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E230" s="5"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B231" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C231" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E231" s="5"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B232" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C232" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E232" s="5"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B233" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C233" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B234" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C234" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E234" s="5"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B235" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C235" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E235" s="5"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B236" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C236" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B237" t="s">
         <v>1129</v>
       </c>
-      <c r="B237" t="s">
-        <v>1131</v>
-      </c>
       <c r="C237" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B238" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C238" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B239" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C239" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E239" s="5"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B240" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C240" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B241" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C241" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E241" s="5"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C242" t="s">
         <v>1152</v>
       </c>
-      <c r="B242" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1154</v>
-      </c>
       <c r="D242" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E242" s="5"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B243" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C243" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B244" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C244" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E244" s="5"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B245" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C245" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B246" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C246" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B247" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C247" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B248" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C248" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E248" s="5"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B249" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C249" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E249" s="5"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B250" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C250" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E250" s="5"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B251" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C251" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E251" s="5"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B252" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C252" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E252" s="5"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B253" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C253" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E253" s="5"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B254" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C254" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E254" s="5"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B255" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C255" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E255" s="5"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B256" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C256" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B257" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C257" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E257" s="5"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B258" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C258" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E258" s="5"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B259" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C259" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E259" s="5"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B260" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C260" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E260" s="5"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B261" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C261" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B262" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C262" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E262" s="5"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B263" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C263" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E263" s="5"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B264" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C264" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E264" s="5"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B265" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C265" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E265" s="5"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B266" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C266" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E266" s="5"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B267" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C267" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E267" s="5"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B268" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C268" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E268" s="5"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B269" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C269" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E269" s="5"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B270" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C270" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E270" s="5"/>
     </row>
@@ -15759,8 +16003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEAE812-7375-8046-86EC-0EFE05190EA3}">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15773,19 +16017,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18430,631 +18674,631 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B178" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C178" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B179" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C179" t="s">
+        <v>833</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B180" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C180" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B181" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C181" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B183" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C183" t="s">
+        <v>854</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>855</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>856</v>
       </c>
       <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B184" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C184" t="s">
+        <v>860</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>861</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>862</v>
       </c>
       <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B185" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C185" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B186" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C186" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B187" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C187" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B188" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C188" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B189" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C189" t="s">
+        <v>883</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>884</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>885</v>
       </c>
       <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B190" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C190" t="s">
+        <v>889</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>890</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>891</v>
       </c>
       <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B191" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C191" t="s">
+        <v>895</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>897</v>
       </c>
       <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B192" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C192" t="s">
+        <v>901</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>903</v>
       </c>
       <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B193" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C193" t="s">
+        <v>907</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B194" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C194" t="s">
+        <v>912</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>914</v>
       </c>
       <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B195" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C195" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B196" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C196" t="s">
+        <v>923</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>924</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>925</v>
       </c>
       <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B197" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C197" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B198" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C198" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B199" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C199" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B200" t="s">
         <v>941</v>
       </c>
-      <c r="B200" t="s">
-        <v>943</v>
-      </c>
       <c r="C200" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B201" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C201" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B202" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C202" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B203" t="s">
         <v>958</v>
       </c>
-      <c r="B203" t="s">
-        <v>960</v>
-      </c>
       <c r="C203" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B204" t="s">
+        <v>964</v>
+      </c>
+      <c r="C204" t="s">
         <v>963</v>
       </c>
-      <c r="B204" t="s">
-        <v>966</v>
-      </c>
-      <c r="C204" t="s">
-        <v>965</v>
-      </c>
       <c r="D204" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B205" t="s">
         <v>969</v>
       </c>
-      <c r="B205" t="s">
-        <v>971</v>
-      </c>
       <c r="C205" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B206" t="s">
         <v>974</v>
       </c>
-      <c r="B206" t="s">
-        <v>976</v>
-      </c>
       <c r="C206" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B207" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C207" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B208" t="s">
+        <v>985</v>
+      </c>
+      <c r="C208" t="s">
         <v>984</v>
       </c>
-      <c r="B208" t="s">
-        <v>987</v>
-      </c>
-      <c r="C208" t="s">
-        <v>986</v>
-      </c>
       <c r="D208" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B209" t="s">
+        <v>991</v>
+      </c>
+      <c r="C209" t="s">
         <v>990</v>
       </c>
-      <c r="B209" t="s">
-        <v>993</v>
-      </c>
-      <c r="C209" t="s">
-        <v>992</v>
-      </c>
       <c r="D209" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B210" t="s">
+        <v>996</v>
+      </c>
+      <c r="C210" t="s">
         <v>995</v>
       </c>
-      <c r="B210" t="s">
-        <v>998</v>
-      </c>
-      <c r="C210" t="s">
-        <v>997</v>
-      </c>
       <c r="D210" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B211" t="s">
         <v>1001</v>
       </c>
-      <c r="B211" t="s">
-        <v>1003</v>
-      </c>
       <c r="C211" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B212" t="s">
         <v>1005</v>
       </c>
-      <c r="B212" t="s">
-        <v>1007</v>
-      </c>
       <c r="C212" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B213" t="s">
         <v>1010</v>
       </c>
-      <c r="B213" t="s">
-        <v>1012</v>
-      </c>
       <c r="C213" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B214" t="s">
         <v>1015</v>
       </c>
-      <c r="B214" t="s">
-        <v>1017</v>
-      </c>
       <c r="C214" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B215" t="s">
         <v>1020</v>
       </c>
-      <c r="B215" t="s">
-        <v>1022</v>
-      </c>
       <c r="C215" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B216" t="s">
         <v>1024</v>
       </c>
-      <c r="B216" t="s">
-        <v>1026</v>
-      </c>
       <c r="C216" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B217" t="s">
         <v>1029</v>
       </c>
-      <c r="B217" t="s">
-        <v>1031</v>
-      </c>
       <c r="C217" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E217" s="5"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B218" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C218" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E218" s="5"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B219" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C219" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E219" s="5"/>
     </row>
@@ -19063,763 +19307,763 @@
         <v>602</v>
       </c>
       <c r="B220" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C220" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B221" t="s">
         <v>1051</v>
       </c>
-      <c r="B221" t="s">
-        <v>1053</v>
-      </c>
       <c r="C221" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B222" t="s">
         <v>1056</v>
       </c>
-      <c r="B222" t="s">
-        <v>1058</v>
-      </c>
       <c r="C222" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B223" t="s">
         <v>1060</v>
       </c>
-      <c r="B223" t="s">
-        <v>1062</v>
-      </c>
       <c r="C223" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E223" s="5"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C224" t="s">
         <v>1065</v>
       </c>
-      <c r="B224" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C224" t="s">
-        <v>1067</v>
-      </c>
       <c r="D224" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E224" s="5"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C225" t="s">
         <v>1071</v>
       </c>
-      <c r="B225" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1073</v>
-      </c>
       <c r="D225" s="5" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E225" s="5"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B226" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C226" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E226" s="5"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B227" t="s">
         <v>1079</v>
       </c>
-      <c r="B227" t="s">
-        <v>1081</v>
-      </c>
       <c r="C227" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C228" t="s">
         <v>1083</v>
       </c>
-      <c r="B228" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C228" t="s">
-        <v>1085</v>
-      </c>
       <c r="D228" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E228" s="5"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B229" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C229" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E229" s="5"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C230" t="s">
         <v>1090</v>
       </c>
-      <c r="B230" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C230" t="s">
-        <v>1092</v>
-      </c>
       <c r="D230" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E230" s="5"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C231" t="s">
         <v>1096</v>
       </c>
-      <c r="B231" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C231" t="s">
-        <v>1098</v>
-      </c>
       <c r="D231" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E231" s="5"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C232" t="s">
         <v>1102</v>
       </c>
-      <c r="B232" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1104</v>
-      </c>
       <c r="D232" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E232" s="5"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C233" t="s">
         <v>1108</v>
       </c>
-      <c r="B233" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1110</v>
-      </c>
       <c r="D233" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B234" t="s">
         <v>1114</v>
       </c>
-      <c r="B234" t="s">
-        <v>1116</v>
-      </c>
       <c r="C234" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E234" s="5"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C235" t="s">
         <v>1119</v>
       </c>
-      <c r="B235" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1121</v>
-      </c>
       <c r="D235" s="5" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E235" s="5"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B236" t="s">
         <v>1125</v>
       </c>
-      <c r="B236" t="s">
-        <v>1127</v>
-      </c>
       <c r="C236" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B237" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C237" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C238" t="s">
         <v>1133</v>
       </c>
-      <c r="B238" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C238" t="s">
-        <v>1135</v>
-      </c>
       <c r="D238" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B239" t="s">
         <v>1138</v>
       </c>
-      <c r="B239" t="s">
-        <v>1140</v>
-      </c>
       <c r="C239" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E239" s="5"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B240" t="s">
         <v>1142</v>
       </c>
-      <c r="B240" t="s">
-        <v>1144</v>
-      </c>
       <c r="C240" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B241" t="s">
         <v>1147</v>
       </c>
-      <c r="B241" t="s">
-        <v>1149</v>
-      </c>
       <c r="C241" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E241" s="5"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B242" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C242" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E242" s="5"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B243" t="s">
         <v>1155</v>
       </c>
-      <c r="B243" t="s">
-        <v>1157</v>
-      </c>
       <c r="C243" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B244" t="s">
         <v>1160</v>
       </c>
-      <c r="B244" t="s">
-        <v>1162</v>
-      </c>
       <c r="C244" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E244" s="5"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B245" t="s">
         <v>1165</v>
       </c>
-      <c r="B245" t="s">
-        <v>1167</v>
-      </c>
       <c r="C245" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B246" t="s">
         <v>1169</v>
       </c>
-      <c r="B246" t="s">
-        <v>1171</v>
-      </c>
       <c r="C246" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C247" t="s">
         <v>1174</v>
       </c>
-      <c r="B247" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1176</v>
-      </c>
       <c r="D247" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C248" t="s">
         <v>1180</v>
       </c>
-      <c r="B248" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1182</v>
-      </c>
       <c r="D248" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E248" s="5"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B249" t="s">
         <v>1185</v>
       </c>
-      <c r="B249" t="s">
-        <v>1187</v>
-      </c>
       <c r="C249" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E249" s="5"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B250" t="s">
         <v>1189</v>
       </c>
-      <c r="B250" t="s">
-        <v>1191</v>
-      </c>
       <c r="C250" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E250" s="5"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C251" t="s">
         <v>1193</v>
       </c>
-      <c r="B251" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1195</v>
-      </c>
       <c r="D251" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E251" s="5"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B252" t="s">
         <v>1199</v>
       </c>
-      <c r="B252" t="s">
-        <v>1201</v>
-      </c>
       <c r="C252" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E252" s="5"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B253" t="s">
         <v>1203</v>
       </c>
-      <c r="B253" t="s">
-        <v>1205</v>
-      </c>
       <c r="C253" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E253" s="5"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B254" t="s">
         <v>1208</v>
       </c>
-      <c r="B254" t="s">
-        <v>1210</v>
-      </c>
       <c r="C254" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E254" s="5"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B255" t="s">
         <v>1213</v>
       </c>
-      <c r="B255" t="s">
-        <v>1215</v>
-      </c>
       <c r="C255" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E255" s="5"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B256" t="s">
         <v>1218</v>
       </c>
-      <c r="B256" t="s">
-        <v>1220</v>
-      </c>
       <c r="C256" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B257" t="s">
         <v>1223</v>
       </c>
-      <c r="B257" t="s">
-        <v>1225</v>
-      </c>
       <c r="C257" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E257" s="5"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C258" t="s">
         <v>1227</v>
       </c>
-      <c r="B258" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C258" t="s">
-        <v>1229</v>
-      </c>
       <c r="D258" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E258" s="5"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C259" t="s">
         <v>1233</v>
       </c>
-      <c r="B259" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C259" t="s">
-        <v>1235</v>
-      </c>
       <c r="D259" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E259" s="5"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C260" t="s">
         <v>1239</v>
       </c>
-      <c r="B260" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C260" t="s">
-        <v>1241</v>
-      </c>
       <c r="D260" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E260" s="5"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C261" t="s">
         <v>1245</v>
       </c>
-      <c r="B261" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C261" t="s">
-        <v>1247</v>
-      </c>
       <c r="D261" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C262" t="s">
         <v>1251</v>
       </c>
-      <c r="B262" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1253</v>
-      </c>
       <c r="D262" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E262" s="5"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B263" t="s">
         <v>1257</v>
       </c>
-      <c r="B263" t="s">
-        <v>1259</v>
-      </c>
       <c r="C263" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E263" s="5"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C264" t="s">
         <v>1262</v>
       </c>
-      <c r="B264" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C264" t="s">
-        <v>1264</v>
-      </c>
       <c r="D264" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E264" s="5"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B265" t="s">
         <v>1268</v>
       </c>
-      <c r="B265" t="s">
-        <v>1270</v>
-      </c>
       <c r="C265" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E265" s="5"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B266" t="s">
         <v>1273</v>
       </c>
-      <c r="B266" t="s">
-        <v>1275</v>
-      </c>
       <c r="C266" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E266" s="5"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B267" t="s">
         <v>1278</v>
       </c>
-      <c r="B267" t="s">
-        <v>1280</v>
-      </c>
       <c r="C267" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E267" s="5"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B268" t="s">
         <v>1283</v>
       </c>
-      <c r="B268" t="s">
-        <v>1285</v>
-      </c>
       <c r="C268" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E268" s="5"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C269" t="s">
         <v>1287</v>
       </c>
-      <c r="B269" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1289</v>
-      </c>
       <c r="D269" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E269" s="5"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B270" t="s">
         <v>1293</v>
       </c>
-      <c r="B270" t="s">
-        <v>1295</v>
-      </c>
       <c r="C270" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E270" s="5"/>
     </row>
